--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2464.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2464.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.108981189763985</v>
+        <v>1.747140288352966</v>
       </c>
       <c r="B1">
-        <v>2.498767364805887</v>
+        <v>2.634513854980469</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.333444595336914</v>
       </c>
       <c r="D1">
-        <v>3.207150018262297</v>
+        <v>2.174373865127563</v>
       </c>
       <c r="E1">
-        <v>0.9453850769796477</v>
+        <v>0.5114942193031311</v>
       </c>
     </row>
   </sheetData>
